--- a/newData.xlsx
+++ b/newData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Other\newNeuralMed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E40AE7-E34C-43F0-8491-F6DF5F09EBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D0B57-3FBC-4B54-9ED6-9752C34F2089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="285" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -374,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,25 +410,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>27.141582391433676</v>
+        <v>22.850462323307472</v>
       </c>
       <c r="B2">
-        <v>5.04</v>
+        <v>3.2</v>
       </c>
       <c r="C2">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="E2">
-        <v>1.63</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>2.6521739130434785</v>
+        <v>2.1372549019607843</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,25 +1537,25 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>22.850462323307472</v>
+        <v>27.141582391433676</v>
       </c>
       <c r="B51">
-        <v>3.2</v>
+        <v>5.04</v>
       </c>
       <c r="C51">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="D51">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>0.5</v>
+        <v>1.63</v>
       </c>
       <c r="F51">
-        <v>2.1372549019607843</v>
+        <v>2.6521739130434785</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
